--- a/data/MU.xlsx
+++ b/data/MU.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MU 101 with a grade of C- or better, or consent of instructor.</t>
+          <t>MU 101 with a grade of C- or better, or consent of instructor.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>F, W</t>
         </is>
@@ -432,10 +477,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MU 101; Music majors may be concurrently enrolled in MU 101 and MU 104.</t>
+          <t>MU 101; Music majors may be concurrently enrolled in MU 101 and MU 104.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MU 103 with a grade of C- or better, or consent of instructor.</t>
+          <t>MU 103 with a grade of C- or better, or consent of instructor.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -476,12 +551,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MU 104 with a grade of C- or better, or consent of instructor. Corequisite: MU 103.</t>
+          <t>MU 104 with a grade of C- or better, or consent of instructor.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>MU 103.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MU 106 with a grade of C- or better, or consent of instructor.</t>
+          <t>MU 106 with a grade of C- or better, or consent of instructor.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MU 101 or consent of instructor.</t>
+          <t>MU 101 or consent of instructor.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>SP</t>
         </is>
       </c>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -635,6 +815,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MU 151 or consent of instructor; for non-music majors.</t>
+          <t>MU 151 or consent of instructor; for non-music majors.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -679,6 +889,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -701,6 +926,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -740,10 +995,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MU 161 or consent of instructor.</t>
+          <t>MU 161 or consent of instructor.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MU 162 or consent of instructor.</t>
+          <t>MU 162 or consent of instructor.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -789,7 +1074,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F, W, SPCorequisite: MU 253 or piano topic in any of the following courses: MU 150, MU 250, MU 350 or MU 450; or consent of instructor.</t>
+          <t>MU 253 or piano topic in any of the following MU 150, MU 250, MU 350 or MU 450; or consent of instructor.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>F, W, SP</t>
         </is>
       </c>
     </row>
@@ -811,6 +1111,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -833,6 +1148,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -855,6 +1185,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -877,6 +1222,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -899,6 +1259,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -921,6 +1296,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -943,6 +1333,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -965,6 +1370,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -987,6 +1407,21 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1009,6 +1444,21 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1031,6 +1481,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1053,6 +1518,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1075,6 +1555,21 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MU 150, MU 250, MU 350 or MU 450, or consent of instructor.</t>
+          <t>MU 150, MU 250, MU 350 or MU 450, or consent of instructor.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1119,6 +1629,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1136,12 +1661,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MU 108 with a grade of C- or better, or consent of instructor. Corequisite: MU 105.</t>
+          <t>MU 108 with a grade of C- or better, or consent of instructor.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>MU 105.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MU 210 with a grade of C- or better, or consent of instructor.</t>
+          <t>MU 210 with a grade of C- or better, or consent of instructor.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MU 211 with a grade of C- or better, or consent of instructor.</t>
+          <t>MU 211 with a grade of C- or better, or consent of instructor.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1207,6 +1777,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>W, SP</t>
         </is>
       </c>
@@ -1229,7 +1814,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>F, WRecommended: GE Area A1, GE Area A2, or GE Area A3.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>GE Area A1, GE Area A2, or GE Area A3.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>F, W</t>
         </is>
       </c>
     </row>
@@ -1251,6 +1851,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3 units of MU 150 and consent of instructor.</t>
+          <t>3 units of MU 150 and consent of instructor.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1295,6 +1925,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Facility on a musical instrument or singing ability; MU 101 or consent of instructor.</t>
+          <t>Facility on a musical instrument or singing ability; MU 101 or consent of instructor.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MU 163 or consent of instructor.</t>
+          <t>MU 163 or consent of instructor.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MU 261 or consent of instructor.</t>
+          <t>MU 261 or consent of instructor.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1378,10 +2068,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MU 262 or consent of instructor.</t>
+          <t>MU 262 or consent of instructor.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1405,6 +2110,21 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
@@ -1427,6 +2147,21 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1444,10 +2179,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MU 105.</t>
+          <t>MU 105.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1466,10 +2216,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MU 105 with a grade of C- or better, or consent of instructor.</t>
+          <t>MU 105 with a grade of C- or better, or consent of instructor.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1488,10 +2253,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MU 303 or permission of instructor.</t>
+          <t>MU 303 or permission of instructor.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1510,10 +2290,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MU 101, MU 120 or consent of instructor.</t>
+          <t>MU 101, MU 120 or consent of instructor.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1532,10 +2327,25 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MU 311 or permission of instructor.</t>
+          <t>MU 311 or permission of instructor.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1554,12 +2364,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Completion of GE Area A1 with a grade of C- or better; and MU 105. Recommended: MU 120.</t>
+          <t>Completion of GE Area A1 with a grade of C- or better; and MU 105.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>MU 120.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1581,6 +2406,21 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1598,12 +2438,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MU 105. Recommended: MU 120.</t>
+          <t>MU 105.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>MU 120.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1620,10 +2475,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MU 121 or consent of instructor.</t>
+          <t>MU 121 or consent of instructor.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1647,6 +2517,21 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1664,12 +2549,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MU 320 or consent of instructor. Recommended: MU 120.</t>
+          <t>MU 320 or consent of instructor.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>MU 120.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1686,12 +2586,27 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MU 320 or consent of instructor. Recommended: MU 120.</t>
+          <t>MU 320 or consent of instructor.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>MU 120.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1708,10 +2623,25 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MU 105.</t>
+          <t>MU 105.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1730,10 +2660,25 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MU 105 or consent of instructor.</t>
+          <t>MU 105 or consent of instructor.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1752,10 +2697,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MU 340.</t>
+          <t>MU 340.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1774,10 +2734,25 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MU 340.</t>
+          <t>MU 340.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1801,6 +2776,21 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1818,10 +2808,25 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MU 105.</t>
+          <t>MU 105.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1840,10 +2845,25 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MU 105.</t>
+          <t>MU 105.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1862,10 +2882,25 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MU 101.</t>
+          <t>MU 101.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -1889,6 +2924,21 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1906,10 +2956,25 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Junior standing and MU 168 or consent of instructor.</t>
+          <t>Junior standing and MU 168 or consent of instructor.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -1933,6 +2998,21 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1955,6 +3035,21 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1977,6 +3072,21 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1999,6 +3109,21 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2021,6 +3146,21 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2043,6 +3183,21 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>F, W</t>
         </is>
       </c>
@@ -2065,6 +3220,21 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -2082,10 +3252,25 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MU 178 or consent of instructor.</t>
+          <t>MU 178 or consent of instructor.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -2109,6 +3294,21 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2131,6 +3331,21 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2153,6 +3368,21 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2175,6 +3405,21 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2192,10 +3437,25 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MU 188 or consent of instructor.</t>
+          <t>MU 188 or consent of instructor.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2214,10 +3474,25 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MU 150, MU 250, MU 350 or MU 450, or consent of instructor.</t>
+          <t>MU 150, MU 250, MU 350 or MU 450, or consent of instructor.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -2241,6 +3516,21 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2258,10 +3548,25 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MU 312.</t>
+          <t>MU 312.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -2280,10 +3585,25 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MU 312.</t>
+          <t>MU 312.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2302,12 +3622,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MU 303 and MU 320; Recommended: MU 120; or consent of instructor.</t>
+          <t>MU 303 and MU 320;</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>MU 120; or consent of instructor.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -2324,12 +3659,27 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MU 303; and one of the following: MU 331, MU 332, or MU 431. Recommended: MU 305.</t>
+          <t>MU 303; and one of the MU 331, MU 332, or MU 431.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>MU 305.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -2351,6 +3701,21 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2373,6 +3738,21 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -2390,10 +3770,25 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MU 341, or consent of instructor.</t>
+          <t>MU 341, or consent of instructor.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2412,10 +3807,25 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MU 101 or MU 103; and MU 172 or MU 173 or MU 174.</t>
+          <t>MU 101 or MU 103; and MU 172 or MU 173 or MU 174.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -2434,10 +3844,25 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MU 331, MU 332, MU 431, MU 432, or consent of instructor.</t>
+          <t>MU 331, MU 332, MU 431, MU 432, or consent of instructor.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
